--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QuangTrung\Desktop\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A32B8FD2-780F-4C8E-8CA8-EB07A1377B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA703BC5-7504-48B0-AE2F-B56EFDB003BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{B0403B8E-2222-4073-8500-A2F42443E062}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Cucaltor" sheetId="262" r:id="rId2"/>
-    <sheet name="DataSolver" sheetId="263" r:id="rId3"/>
-    <sheet name="TheOptimalRiskyPorfolio" sheetId="264" r:id="rId4"/>
+    <sheet name="Cucaltor" sheetId="268" r:id="rId2"/>
+    <sheet name="DataSolver" sheetId="269" r:id="rId3"/>
+    <sheet name="TheOptimalRiskyPorfolio" sheetId="270" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44292,7 +44292,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1297C164-71B6-48BD-AA9C-0175F2454ECC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0982834E-F7FC-40AC-B426-BAAF1C6CE593}">
   <dimension ref="A5:AP195"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -54686,7 +54686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2997E7C7-9BCE-451B-9587-8EF5F9F8533B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E10E786-5160-4D40-AD87-9A6F4E711E14}">
   <dimension ref="A5:T127"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -62285,12 +62285,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694DE9F4-A965-4531-8F44-EC253431D6BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C7A84F-87A9-4829-8078-E0F9DF7B7C21}">
   <dimension ref="A5:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
